--- a/Data/Matching_LWR_data/Gerres_oyena_restricted.xlsx
+++ b/Data/Matching_LWR_data/Gerres_oyena_restricted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\Matching_LWR_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Data\Matching_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0930631F-0D4D-4104-8176-BC4A822191A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E1C5C2-5928-4E80-B4F8-F073AB0F1136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31770" yWindow="1470" windowWidth="16515" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,11 +466,11 @@
         <v>75.099999999999994</v>
       </c>
       <c r="G2" s="1">
-        <f>E2/10</f>
+        <f t="shared" ref="G2:G29" si="0">E2/10</f>
         <v>5.89</v>
       </c>
       <c r="H2" s="1">
-        <f>F2/10</f>
+        <f t="shared" ref="H2:H29" si="1">F2/10</f>
         <v>7.51</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -500,11 +500,11 @@
         <v>80.599999999999994</v>
       </c>
       <c r="G3" s="1">
-        <f>E3/10</f>
+        <f t="shared" si="0"/>
         <v>6.05</v>
       </c>
       <c r="H3" s="1">
-        <f>F3/10</f>
+        <f t="shared" si="1"/>
         <v>8.0599999999999987</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -534,11 +534,11 @@
         <v>78.3</v>
       </c>
       <c r="G4" s="1">
-        <f>E4/10</f>
+        <f t="shared" si="0"/>
         <v>6.15</v>
       </c>
       <c r="H4" s="1">
-        <f>F4/10</f>
+        <f t="shared" si="1"/>
         <v>7.83</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -568,11 +568,11 @@
         <v>80.5</v>
       </c>
       <c r="G5" s="1">
-        <f>E5/10</f>
+        <f t="shared" si="0"/>
         <v>6.16</v>
       </c>
       <c r="H5" s="1">
-        <f>F5/10</f>
+        <f t="shared" si="1"/>
         <v>8.0500000000000007</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -602,11 +602,11 @@
         <v>76.599999999999994</v>
       </c>
       <c r="G6" s="1">
-        <f>E6/10</f>
+        <f t="shared" si="0"/>
         <v>6.17</v>
       </c>
       <c r="H6" s="1">
-        <f>F6/10</f>
+        <f t="shared" si="1"/>
         <v>7.6599999999999993</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -636,11 +636,11 @@
         <v>78.2</v>
       </c>
       <c r="G7" s="1">
-        <f>E7/10</f>
+        <f t="shared" si="0"/>
         <v>6.2799999999999994</v>
       </c>
       <c r="H7" s="1">
-        <f>F7/10</f>
+        <f t="shared" si="1"/>
         <v>7.82</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -670,11 +670,11 @@
         <v>85.5</v>
       </c>
       <c r="G8" s="1">
-        <f>E8/10</f>
+        <f t="shared" si="0"/>
         <v>6.55</v>
       </c>
       <c r="H8" s="1">
-        <f>F8/10</f>
+        <f t="shared" si="1"/>
         <v>8.5500000000000007</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -704,11 +704,11 @@
         <v>86.2</v>
       </c>
       <c r="G9" s="1">
-        <f>E9/10</f>
+        <f t="shared" si="0"/>
         <v>6.65</v>
       </c>
       <c r="H9" s="1">
-        <f>F9/10</f>
+        <f t="shared" si="1"/>
         <v>8.620000000000001</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -738,11 +738,11 @@
         <v>83.9</v>
       </c>
       <c r="G10" s="1">
-        <f>E10/10</f>
+        <f t="shared" si="0"/>
         <v>6.67</v>
       </c>
       <c r="H10" s="1">
-        <f>F10/10</f>
+        <f t="shared" si="1"/>
         <v>8.39</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -772,11 +772,11 @@
         <v>86.2</v>
       </c>
       <c r="G11" s="1">
-        <f>E11/10</f>
+        <f t="shared" si="0"/>
         <v>6.85</v>
       </c>
       <c r="H11" s="1">
-        <f>F11/10</f>
+        <f t="shared" si="1"/>
         <v>8.620000000000001</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -806,11 +806,11 @@
         <v>92</v>
       </c>
       <c r="G12" s="1">
-        <f>E12/10</f>
+        <f t="shared" si="0"/>
         <v>6.9799999999999995</v>
       </c>
       <c r="H12" s="1">
-        <f>F12/10</f>
+        <f t="shared" si="1"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -840,11 +840,11 @@
         <v>90.6</v>
       </c>
       <c r="G13" s="1">
-        <f>E13/10</f>
+        <f t="shared" si="0"/>
         <v>7.01</v>
       </c>
       <c r="H13" s="1">
-        <f>F13/10</f>
+        <f t="shared" si="1"/>
         <v>9.0599999999999987</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -874,11 +874,11 @@
         <v>90.2</v>
       </c>
       <c r="G14" s="1">
-        <f>E14/10</f>
+        <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
       <c r="H14" s="1">
-        <f>F14/10</f>
+        <f t="shared" si="1"/>
         <v>9.02</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -908,11 +908,11 @@
         <v>92.5</v>
       </c>
       <c r="G15" s="1">
-        <f>E15/10</f>
+        <f t="shared" si="0"/>
         <v>7.2900000000000009</v>
       </c>
       <c r="H15" s="1">
-        <f>F15/10</f>
+        <f t="shared" si="1"/>
         <v>9.25</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -942,11 +942,11 @@
         <v>94.4</v>
       </c>
       <c r="G16" s="1">
-        <f>E16/10</f>
+        <f t="shared" si="0"/>
         <v>7.5900000000000007</v>
       </c>
       <c r="H16" s="1">
-        <f>F16/10</f>
+        <f t="shared" si="1"/>
         <v>9.4400000000000013</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -976,11 +976,11 @@
         <v>97.5</v>
       </c>
       <c r="G17" s="1">
-        <f>E17/10</f>
+        <f t="shared" si="0"/>
         <v>7.6599999999999993</v>
       </c>
       <c r="H17" s="1">
-        <f>F17/10</f>
+        <f t="shared" si="1"/>
         <v>9.75</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1010,11 +1010,11 @@
         <v>96.6</v>
       </c>
       <c r="G18" s="1">
-        <f>E18/10</f>
+        <f t="shared" si="0"/>
         <v>7.7200000000000006</v>
       </c>
       <c r="H18" s="1">
-        <f>F18/10</f>
+        <f t="shared" si="1"/>
         <v>9.66</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1044,11 +1044,11 @@
         <v>99.2</v>
       </c>
       <c r="G19" s="1">
-        <f>E19/10</f>
+        <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
       <c r="H19" s="1">
-        <f>F19/10</f>
+        <f t="shared" si="1"/>
         <v>9.92</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1078,11 +1078,11 @@
         <v>103</v>
       </c>
       <c r="G20" s="1">
-        <f>E20/10</f>
+        <f t="shared" si="0"/>
         <v>7.7799999999999994</v>
       </c>
       <c r="H20" s="1">
-        <f>F20/10</f>
+        <f t="shared" si="1"/>
         <v>10.3</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1112,11 +1112,11 @@
         <v>98.3</v>
       </c>
       <c r="G21" s="1">
-        <f>E21/10</f>
+        <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
       <c r="H21" s="1">
-        <f>F21/10</f>
+        <f t="shared" si="1"/>
         <v>9.83</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1146,11 +1146,11 @@
         <v>98.5</v>
       </c>
       <c r="G22" s="1">
-        <f>E22/10</f>
+        <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
       <c r="H22" s="1">
-        <f>F22/10</f>
+        <f t="shared" si="1"/>
         <v>9.85</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1180,11 +1180,11 @@
         <v>105.2</v>
       </c>
       <c r="G23" s="1">
-        <f>E23/10</f>
+        <f t="shared" si="0"/>
         <v>7.88</v>
       </c>
       <c r="H23" s="1">
-        <f>F23/10</f>
+        <f t="shared" si="1"/>
         <v>10.52</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1214,11 +1214,11 @@
         <v>103.5</v>
       </c>
       <c r="G24" s="1">
-        <f>E24/10</f>
+        <f t="shared" si="0"/>
         <v>7.9599999999999991</v>
       </c>
       <c r="H24" s="1">
-        <f>F24/10</f>
+        <f t="shared" si="1"/>
         <v>10.35</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1248,11 +1248,11 @@
         <v>110.2</v>
       </c>
       <c r="G25" s="1">
-        <f>E25/10</f>
+        <f t="shared" si="0"/>
         <v>8.66</v>
       </c>
       <c r="H25" s="1">
-        <f>F25/10</f>
+        <f t="shared" si="1"/>
         <v>11.02</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1282,11 +1282,11 @@
         <v>117</v>
       </c>
       <c r="G26" s="1">
-        <f>E26/10</f>
+        <f t="shared" si="0"/>
         <v>9.15</v>
       </c>
       <c r="H26" s="1">
-        <f>F26/10</f>
+        <f t="shared" si="1"/>
         <v>11.7</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1316,11 +1316,11 @@
         <v>120</v>
       </c>
       <c r="G27" s="1">
-        <f>E27/10</f>
+        <f t="shared" si="0"/>
         <v>9.24</v>
       </c>
       <c r="H27" s="1">
-        <f>F27/10</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1350,11 +1350,11 @@
         <v>120.1</v>
       </c>
       <c r="G28" s="1">
-        <f>E28/10</f>
+        <f t="shared" si="0"/>
         <v>9.27</v>
       </c>
       <c r="H28" s="1">
-        <f>F28/10</f>
+        <f t="shared" si="1"/>
         <v>12.01</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1384,11 +1384,11 @@
         <v>119.6</v>
       </c>
       <c r="G29" s="1">
-        <f>E29/10</f>
+        <f t="shared" si="0"/>
         <v>9.48</v>
       </c>
       <c r="H29" s="1">
-        <f>F29/10</f>
+        <f t="shared" si="1"/>
         <v>11.959999999999999</v>
       </c>
       <c r="I29" s="1" t="s">
